--- a/docs/TrashCost.xlsx
+++ b/docs/TrashCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jij09\Desktop\학교\대회 및 프로그램 자료\2024 학부생 연구실 인턴\리빙랩과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jij09\projects\livingLAB\livingLab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD047F1-89EF-499E-9CFE-BFD48DA0F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01BBA94-DE07-40C2-89B2-7CE69E9A7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대형폐기물 코스트 부여 표" sheetId="2" r:id="rId1"/>
@@ -224,16 +224,17 @@
     <t>카펫트</t>
   </si>
   <si>
-    <t>비용</t>
-  </si>
-  <si>
     <t>거울(액자)</t>
   </si>
   <si>
     <t>올겐(재확인 필요)</t>
   </si>
   <si>
-    <t>폐기물 종류</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,16 +596,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DDC081-B560-462B-BBC4-82A91CBBFE27}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -649,7 +652,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>4</v>

--- a/docs/TrashCost.xlsx
+++ b/docs/TrashCost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jij09\projects\livingLAB\livingLab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01BBA94-DE07-40C2-89B2-7CE69E9A7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A2898-16A1-4CC5-8232-81CFAF9F066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31305" yWindow="2880" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대형폐기물 코스트 부여 표" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>냉장고</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형폐기물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp마대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP마대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DDC081-B560-462B-BBC4-82A91CBBFE27}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1130,6 +1142,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/TrashCost.xlsx
+++ b/docs/TrashCost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jij09\projects\livingLAB\livingLab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A2898-16A1-4CC5-8232-81CFAF9F066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96556C84-1F8F-49A5-8F2E-BAE82404799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="2880" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대형폐기물 코스트 부여 표" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>냉장고</t>
   </si>
@@ -238,15 +238,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대형폐기물</t>
+    <t>PP bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pp마대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PP마대</t>
+    <t>Large Waste Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DDC081-B560-462B-BBC4-82A91CBBFE27}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1144,7 +1140,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1152,17 +1148,9 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
         <v>1</v>
       </c>
     </row>
